--- a/simulated_data/10nodes_30len_trial9.xlsx
+++ b/simulated_data/10nodes_30len_trial9.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.601697288551706</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.601697288475363</v>
+        <v>15.425</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.945</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.505</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.595</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20.725</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13.375</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19.305</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-11.07884052427461</v>
+        <v>15.425</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.07884052407444</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.755</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15.595</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34.425</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.705</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26.63</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26.655</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34.425</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.974766835301372</v>
+        <v>18.945</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.974766835242883</v>
+        <v>29.755</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.175000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.585</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25.475</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.08</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.501136694848508</v>
+        <v>11.505</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.501136694642267</v>
+        <v>15.595</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.175000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.735</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>35.305</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18.925</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.517845099000316</v>
+        <v>17.64</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.517845099049021</v>
+        <v>34.425</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26.12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="H6" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.505</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8806949561253788</v>
+        <v>10.595</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8806949562530131</v>
+        <v>24.705</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.585</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27.735</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25.165</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K7" t="n">
+        <v>24.7</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.2322601972711</v>
+        <v>20.725</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.232260197133756</v>
+        <v>23.36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>37.43</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25.165</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10.445</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29.975</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21.695</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.63151841800984</v>
+        <v>16.54</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.63151841782692</v>
+        <v>26.63</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="G9" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.445</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.865</v>
+      </c>
+      <c r="K9" t="n">
+        <v>13.08</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.122510493102156</v>
+        <v>13.375</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.122510493189911</v>
+        <v>26.655</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.475</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35.305</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="H10" t="n">
+        <v>29.975</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.865</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13.7</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>19.305</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>34.425</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18.925</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11.505</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.695</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>14.34</v>
       </c>
       <c r="D2" t="n">
-        <v>17.05</v>
+        <v>15.1</v>
       </c>
       <c r="E2" t="n">
-        <v>14.64</v>
+        <v>12.94</v>
       </c>
       <c r="F2" t="n">
-        <v>16.38</v>
+        <v>12.01</v>
       </c>
       <c r="G2" t="n">
-        <v>11.48</v>
+        <v>15.59</v>
       </c>
       <c r="H2" t="n">
-        <v>18.63</v>
+        <v>15.95</v>
       </c>
       <c r="I2" t="n">
-        <v>15.3</v>
+        <v>9.68</v>
       </c>
       <c r="J2" t="n">
-        <v>14.88</v>
+        <v>15.8</v>
       </c>
       <c r="K2" t="n">
-        <v>20.04</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>14.34</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.44</v>
+        <v>29.35</v>
       </c>
       <c r="E3" t="n">
-        <v>16.88</v>
+        <v>25.96</v>
       </c>
       <c r="F3" t="n">
-        <v>30.99</v>
+        <v>16.28</v>
       </c>
       <c r="G3" t="n">
-        <v>24.35</v>
+        <v>18.44</v>
       </c>
       <c r="H3" t="n">
-        <v>24.48</v>
+        <v>30.3</v>
       </c>
       <c r="I3" t="n">
-        <v>28.07</v>
+        <v>23.55</v>
       </c>
       <c r="J3" t="n">
-        <v>28.79</v>
+        <v>16.99</v>
       </c>
       <c r="K3" t="n">
-        <v>34.68</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.05</v>
+        <v>15.1</v>
       </c>
       <c r="C4" t="n">
-        <v>25.44</v>
+        <v>29.35</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.92</v>
+        <v>10.92</v>
       </c>
       <c r="F4" t="n">
-        <v>24.27</v>
+        <v>20.12</v>
       </c>
       <c r="G4" t="n">
-        <v>25.08</v>
+        <v>22.61</v>
       </c>
       <c r="H4" t="n">
-        <v>4.07</v>
+        <v>2.66</v>
       </c>
       <c r="I4" t="n">
-        <v>8.779999999999999</v>
+        <v>6.17</v>
       </c>
       <c r="J4" t="n">
-        <v>25.58</v>
+        <v>24.09</v>
       </c>
       <c r="K4" t="n">
-        <v>18.37</v>
+        <v>21.24</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.64</v>
+        <v>12.94</v>
       </c>
       <c r="C5" t="n">
-        <v>16.88</v>
+        <v>25.96</v>
       </c>
       <c r="D5" t="n">
-        <v>9.92</v>
+        <v>10.92</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.95</v>
+        <v>23.46</v>
       </c>
       <c r="G5" t="n">
-        <v>25.62</v>
+        <v>26.81</v>
       </c>
       <c r="H5" t="n">
-        <v>7.79</v>
+        <v>9.31</v>
       </c>
       <c r="I5" t="n">
-        <v>16.39</v>
+        <v>11.49</v>
       </c>
       <c r="J5" t="n">
-        <v>27.89</v>
+        <v>27.59</v>
       </c>
       <c r="K5" t="n">
-        <v>25.66</v>
+        <v>16.07</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.38</v>
+        <v>12.01</v>
       </c>
       <c r="C6" t="n">
-        <v>30.99</v>
+        <v>16.28</v>
       </c>
       <c r="D6" t="n">
-        <v>24.27</v>
+        <v>20.12</v>
       </c>
       <c r="E6" t="n">
-        <v>27.95</v>
+        <v>23.46</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.390000000000001</v>
+        <v>3.57</v>
       </c>
       <c r="H6" t="n">
-        <v>27.84</v>
+        <v>22.23</v>
       </c>
       <c r="I6" t="n">
-        <v>16.39</v>
+        <v>14.22</v>
       </c>
       <c r="J6" t="n">
-        <v>3.88</v>
+        <v>4.17</v>
       </c>
       <c r="K6" t="n">
-        <v>11.31</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.48</v>
+        <v>15.59</v>
       </c>
       <c r="C7" t="n">
-        <v>24.35</v>
+        <v>18.44</v>
       </c>
       <c r="D7" t="n">
-        <v>25.08</v>
+        <v>22.61</v>
       </c>
       <c r="E7" t="n">
-        <v>25.62</v>
+        <v>26.81</v>
       </c>
       <c r="F7" t="n">
-        <v>8.390000000000001</v>
+        <v>3.57</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.85</v>
+        <v>24.89</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>4.91</v>
+        <v>2.07</v>
       </c>
       <c r="K7" t="n">
-        <v>18.03</v>
+        <v>19.46</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.63</v>
+        <v>15.95</v>
       </c>
       <c r="C8" t="n">
-        <v>24.48</v>
+        <v>30.3</v>
       </c>
       <c r="D8" t="n">
-        <v>4.07</v>
+        <v>2.66</v>
       </c>
       <c r="E8" t="n">
-        <v>7.79</v>
+        <v>9.31</v>
       </c>
       <c r="F8" t="n">
-        <v>27.84</v>
+        <v>22.23</v>
       </c>
       <c r="G8" t="n">
-        <v>27.85</v>
+        <v>24.89</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>28.84</v>
+        <v>26.28</v>
       </c>
       <c r="K8" t="n">
-        <v>22.43</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.3</v>
+        <v>9.68</v>
       </c>
       <c r="C9" t="n">
-        <v>28.07</v>
+        <v>23.55</v>
       </c>
       <c r="D9" t="n">
-        <v>8.779999999999999</v>
+        <v>6.17</v>
       </c>
       <c r="E9" t="n">
-        <v>16.39</v>
+        <v>11.49</v>
       </c>
       <c r="F9" t="n">
-        <v>16.39</v>
+        <v>14.22</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>12.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>18.45</v>
+        <v>18.3</v>
       </c>
       <c r="K9" t="n">
-        <v>9.67</v>
+        <v>16.29</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.88</v>
+        <v>15.8</v>
       </c>
       <c r="C10" t="n">
-        <v>28.79</v>
+        <v>16.99</v>
       </c>
       <c r="D10" t="n">
-        <v>25.58</v>
+        <v>24.09</v>
       </c>
       <c r="E10" t="n">
-        <v>27.89</v>
+        <v>27.59</v>
       </c>
       <c r="F10" t="n">
-        <v>3.88</v>
+        <v>4.17</v>
       </c>
       <c r="G10" t="n">
-        <v>4.91</v>
+        <v>2.07</v>
       </c>
       <c r="H10" t="n">
-        <v>28.84</v>
+        <v>26.28</v>
       </c>
       <c r="I10" t="n">
-        <v>18.45</v>
+        <v>18.3</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.84</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.04</v>
+        <v>6.77</v>
       </c>
       <c r="C11" t="n">
-        <v>34.68</v>
+        <v>10.05</v>
       </c>
       <c r="D11" t="n">
-        <v>18.37</v>
+        <v>21.24</v>
       </c>
       <c r="E11" t="n">
-        <v>25.66</v>
+        <v>16.07</v>
       </c>
       <c r="F11" t="n">
-        <v>11.31</v>
+        <v>16.09</v>
       </c>
       <c r="G11" t="n">
-        <v>18.03</v>
+        <v>19.46</v>
       </c>
       <c r="H11" t="n">
-        <v>22.43</v>
+        <v>21.62</v>
       </c>
       <c r="I11" t="n">
-        <v>9.67</v>
+        <v>16.29</v>
       </c>
       <c r="J11" t="n">
-        <v>14.84</v>
+        <v>18.98</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.447090705013661</v>
+        <v>5.605659118755573</v>
       </c>
       <c r="C2" t="n">
-        <v>4.032461097500457</v>
+        <v>6.982614867916465</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.821027329862675</v>
+        <v>18.51735032576046</v>
       </c>
       <c r="C3" t="n">
-        <v>18.64566862358806</v>
+        <v>13.22789357245042</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.59520450024445</v>
+        <v>-8.865920629681996</v>
       </c>
       <c r="C4" t="n">
-        <v>3.468354877829143</v>
+        <v>2.659501163431023</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.750773107885211</v>
+        <v>-0.536062774141618</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1237423667852</v>
+        <v>-4.402385412740154</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.866307242625547</v>
+        <v>3.201724963338393</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.28674046159971</v>
+        <v>18.75453398724371</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-11.82167154925452</v>
+        <v>2.428818441435376</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.520245907999051</v>
+        <v>22.24463918009318</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.8857644553429</v>
+        <v>-8.73684534727709</v>
       </c>
       <c r="C8" t="n">
-        <v>7.327303021279487</v>
+        <v>-0.002340583338649442</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.4200761717033</v>
+        <v>-4.059587176380671</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.250452147449127</v>
+        <v>6.529176599166502</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.07815994017588</v>
+        <v>4.441696103915569</v>
       </c>
       <c r="C10" t="n">
-        <v>-10.11358995271781</v>
+        <v>22.73479858928647</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.382438531756426</v>
+        <v>12.19424722924279</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.42650151721666</v>
+        <v>5.411036028489352</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>17.86</v>
+        <v>9.16</v>
       </c>
       <c r="D2" t="n">
-        <v>16.71</v>
+        <v>3.72</v>
       </c>
       <c r="E2" t="n">
-        <v>13.54</v>
+        <v>1.27</v>
       </c>
       <c r="F2" t="n">
-        <v>13.83</v>
+        <v>4.36</v>
       </c>
       <c r="G2" t="n">
-        <v>20.16</v>
+        <v>5.26</v>
       </c>
       <c r="H2" t="n">
-        <v>17.28</v>
+        <v>0.52</v>
       </c>
       <c r="I2" t="n">
-        <v>7.78</v>
+        <v>0.04</v>
       </c>
       <c r="J2" t="n">
-        <v>12.96</v>
+        <v>3.51</v>
       </c>
       <c r="K2" t="n">
-        <v>10.37</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.86</v>
+        <v>9.16</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2</v>
+        <v>12.88</v>
       </c>
       <c r="E3" t="n">
-        <v>13.83</v>
+        <v>7.89</v>
       </c>
       <c r="F3" t="n">
-        <v>31.4</v>
+        <v>13.52</v>
       </c>
       <c r="G3" t="n">
-        <v>38.02</v>
+        <v>14.42</v>
       </c>
       <c r="H3" t="n">
-        <v>21.32</v>
+        <v>9.68</v>
       </c>
       <c r="I3" t="n">
-        <v>21.32</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>30.53</v>
+        <v>12.67</v>
       </c>
       <c r="K3" t="n">
-        <v>16.13</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16.71</v>
+        <v>3.72</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2</v>
+        <v>12.88</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.37</v>
+        <v>4.99</v>
       </c>
       <c r="F4" t="n">
-        <v>23.91</v>
+        <v>0.65</v>
       </c>
       <c r="G4" t="n">
-        <v>27.36</v>
+        <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>4.03</v>
+        <v>3.19</v>
       </c>
       <c r="I4" t="n">
-        <v>9.789999999999999</v>
+        <v>3.76</v>
       </c>
       <c r="J4" t="n">
-        <v>24.2</v>
+        <v>0.21</v>
       </c>
       <c r="K4" t="n">
-        <v>26.21</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.54</v>
+        <v>1.27</v>
       </c>
       <c r="C5" t="n">
-        <v>13.83</v>
+        <v>7.89</v>
       </c>
       <c r="D5" t="n">
-        <v>10.37</v>
+        <v>4.99</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.92</v>
+        <v>5.63</v>
       </c>
       <c r="G5" t="n">
-        <v>31.11</v>
+        <v>6.53</v>
       </c>
       <c r="H5" t="n">
-        <v>7.49</v>
+        <v>1.79</v>
       </c>
       <c r="I5" t="n">
-        <v>11.23</v>
+        <v>1.23</v>
       </c>
       <c r="J5" t="n">
-        <v>25.35</v>
+        <v>4.78</v>
       </c>
       <c r="K5" t="n">
-        <v>20.16</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.83</v>
+        <v>4.36</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4</v>
+        <v>13.52</v>
       </c>
       <c r="D6" t="n">
-        <v>23.91</v>
+        <v>0.65</v>
       </c>
       <c r="E6" t="n">
-        <v>25.92</v>
+        <v>5.63</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.91</v>
+        <v>0.9</v>
       </c>
       <c r="H6" t="n">
-        <v>26.5</v>
+        <v>3.84</v>
       </c>
       <c r="I6" t="n">
-        <v>14.98</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.44</v>
+        <v>0.86</v>
       </c>
       <c r="K6" t="n">
-        <v>19.3</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20.16</v>
+        <v>5.26</v>
       </c>
       <c r="C7" t="n">
-        <v>38.02</v>
+        <v>14.42</v>
       </c>
       <c r="D7" t="n">
-        <v>27.36</v>
+        <v>1.55</v>
       </c>
       <c r="E7" t="n">
-        <v>31.11</v>
+        <v>6.53</v>
       </c>
       <c r="F7" t="n">
-        <v>6.91</v>
+        <v>0.9</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>30.53</v>
+        <v>4.74</v>
       </c>
       <c r="I7" t="n">
-        <v>19.88</v>
+        <v>5.3</v>
       </c>
       <c r="J7" t="n">
-        <v>8.35</v>
+        <v>1.76</v>
       </c>
       <c r="K7" t="n">
-        <v>26.21</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17.28</v>
+        <v>0.52</v>
       </c>
       <c r="C8" t="n">
-        <v>21.32</v>
+        <v>9.68</v>
       </c>
       <c r="D8" t="n">
-        <v>4.03</v>
+        <v>3.19</v>
       </c>
       <c r="E8" t="n">
-        <v>7.49</v>
+        <v>1.79</v>
       </c>
       <c r="F8" t="n">
-        <v>26.5</v>
+        <v>3.84</v>
       </c>
       <c r="G8" t="n">
-        <v>30.53</v>
+        <v>4.74</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>26.21</v>
+        <v>2.98</v>
       </c>
       <c r="K8" t="n">
-        <v>25.92</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.78</v>
+        <v>0.04</v>
       </c>
       <c r="C9" t="n">
-        <v>21.32</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>9.789999999999999</v>
+        <v>3.76</v>
       </c>
       <c r="E9" t="n">
-        <v>11.23</v>
+        <v>1.23</v>
       </c>
       <c r="F9" t="n">
-        <v>14.98</v>
+        <v>4.4</v>
       </c>
       <c r="G9" t="n">
-        <v>19.88</v>
+        <v>5.3</v>
       </c>
       <c r="H9" t="n">
-        <v>11.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>14.98</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>17.86</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.96</v>
+        <v>3.51</v>
       </c>
       <c r="C10" t="n">
-        <v>30.53</v>
+        <v>12.67</v>
       </c>
       <c r="D10" t="n">
-        <v>24.2</v>
+        <v>0.21</v>
       </c>
       <c r="E10" t="n">
-        <v>25.35</v>
+        <v>4.78</v>
       </c>
       <c r="F10" t="n">
-        <v>1.44</v>
+        <v>0.86</v>
       </c>
       <c r="G10" t="n">
-        <v>8.35</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>26.21</v>
+        <v>2.98</v>
       </c>
       <c r="I10" t="n">
-        <v>14.98</v>
+        <v>3.55</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.86</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10.37</v>
+        <v>7.92</v>
       </c>
       <c r="C11" t="n">
-        <v>16.13</v>
+        <v>17.08</v>
       </c>
       <c r="D11" t="n">
-        <v>26.21</v>
+        <v>4.21</v>
       </c>
       <c r="E11" t="n">
-        <v>20.16</v>
+        <v>9.19</v>
       </c>
       <c r="F11" t="n">
-        <v>19.3</v>
+        <v>3.56</v>
       </c>
       <c r="G11" t="n">
-        <v>26.21</v>
+        <v>2.66</v>
       </c>
       <c r="H11" t="n">
-        <v>25.92</v>
+        <v>7.4</v>
       </c>
       <c r="I11" t="n">
-        <v>17.86</v>
+        <v>7.96</v>
       </c>
       <c r="J11" t="n">
-        <v>17.86</v>
+        <v>4.42</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.09993965147235585</v>
+        <v>-4.601697288551706</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.08669145194551964</v>
+        <v>-4.601697288475363</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.116164982975397</v>
+        <v>-11.07884052427461</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6683238148625262</v>
+        <v>-11.07884052407444</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4512353377268655</v>
+        <v>-1.974766835301372</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1024685380835202</v>
+        <v>-1.974766835242883</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3444616809945795</v>
+        <v>-5.501136694848508</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2432498101593608</v>
+        <v>-5.501136694642267</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3521635506122832</v>
+        <v>-1.517845099000316</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3210629462765779</v>
+        <v>-1.517845099049021</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3840138180320794</v>
+        <v>-0.8806949561253788</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5552342574312016</v>
+        <v>-0.8806949562530131</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4949435342551154</v>
+        <v>-4.2322601972711</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.03254723419130626</v>
+        <v>-4.232260197133756</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1109698385157585</v>
+        <v>-4.63151841800984</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07513370002779804</v>
+        <v>-4.63151841782692</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3678016709855442</v>
+        <v>-2.122510493102156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2695895400136771</v>
+        <v>-2.122510493189911</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3429461327684735</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3494867968001398</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>6.93</v>
+        <v>17.05</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>14.64</v>
       </c>
       <c r="F2" t="n">
-        <v>16.55</v>
+        <v>16.38</v>
       </c>
       <c r="G2" t="n">
-        <v>18.23</v>
+        <v>11.48</v>
       </c>
       <c r="H2" t="n">
-        <v>5.28</v>
+        <v>18.63</v>
       </c>
       <c r="I2" t="n">
-        <v>3.48</v>
+        <v>15.3</v>
       </c>
       <c r="J2" t="n">
-        <v>15.25</v>
+        <v>14.88</v>
       </c>
       <c r="K2" t="n">
-        <v>23.22</v>
+        <v>20.04</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.53</v>
+        <v>25.44</v>
       </c>
       <c r="E3" t="n">
-        <v>8.59</v>
+        <v>16.88</v>
       </c>
       <c r="F3" t="n">
-        <v>30.14</v>
+        <v>30.99</v>
       </c>
       <c r="G3" t="n">
-        <v>31.82</v>
+        <v>24.35</v>
       </c>
       <c r="H3" t="n">
-        <v>18.88</v>
+        <v>24.48</v>
       </c>
       <c r="I3" t="n">
-        <v>17.08</v>
+        <v>28.07</v>
       </c>
       <c r="J3" t="n">
-        <v>28.85</v>
+        <v>28.79</v>
       </c>
       <c r="K3" t="n">
-        <v>36.82</v>
+        <v>34.68</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.93</v>
+        <v>17.05</v>
       </c>
       <c r="C4" t="n">
-        <v>20.53</v>
+        <v>25.44</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.94</v>
+        <v>9.92</v>
       </c>
       <c r="F4" t="n">
-        <v>9.609999999999999</v>
+        <v>24.27</v>
       </c>
       <c r="G4" t="n">
-        <v>11.29</v>
+        <v>25.08</v>
       </c>
       <c r="H4" t="n">
-        <v>1.65</v>
+        <v>4.07</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>8.32</v>
+        <v>25.58</v>
       </c>
       <c r="K4" t="n">
-        <v>16.29</v>
+        <v>18.37</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>14.64</v>
       </c>
       <c r="C5" t="n">
-        <v>8.59</v>
+        <v>16.88</v>
       </c>
       <c r="D5" t="n">
-        <v>11.94</v>
+        <v>9.92</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>21.55</v>
+        <v>27.95</v>
       </c>
       <c r="G5" t="n">
-        <v>23.23</v>
+        <v>25.62</v>
       </c>
       <c r="H5" t="n">
-        <v>10.29</v>
+        <v>7.79</v>
       </c>
       <c r="I5" t="n">
-        <v>8.49</v>
+        <v>16.39</v>
       </c>
       <c r="J5" t="n">
-        <v>20.25</v>
+        <v>27.89</v>
       </c>
       <c r="K5" t="n">
-        <v>28.23</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16.55</v>
+        <v>16.38</v>
       </c>
       <c r="C6" t="n">
-        <v>30.14</v>
+        <v>30.99</v>
       </c>
       <c r="D6" t="n">
-        <v>9.609999999999999</v>
+        <v>24.27</v>
       </c>
       <c r="E6" t="n">
-        <v>21.55</v>
+        <v>27.95</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.68</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>11.26</v>
+        <v>27.84</v>
       </c>
       <c r="I6" t="n">
-        <v>13.06</v>
+        <v>16.39</v>
       </c>
       <c r="J6" t="n">
-        <v>1.3</v>
+        <v>3.88</v>
       </c>
       <c r="K6" t="n">
-        <v>6.68</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18.23</v>
+        <v>11.48</v>
       </c>
       <c r="C7" t="n">
-        <v>31.82</v>
+        <v>24.35</v>
       </c>
       <c r="D7" t="n">
-        <v>11.29</v>
+        <v>25.08</v>
       </c>
       <c r="E7" t="n">
-        <v>23.23</v>
+        <v>25.62</v>
       </c>
       <c r="F7" t="n">
-        <v>1.68</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>12.94</v>
+        <v>27.85</v>
       </c>
       <c r="I7" t="n">
-        <v>14.74</v>
+        <v>19.28</v>
       </c>
       <c r="J7" t="n">
-        <v>2.98</v>
+        <v>4.91</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>18.03</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.28</v>
+        <v>18.63</v>
       </c>
       <c r="C8" t="n">
-        <v>18.88</v>
+        <v>24.48</v>
       </c>
       <c r="D8" t="n">
-        <v>1.65</v>
+        <v>4.07</v>
       </c>
       <c r="E8" t="n">
-        <v>10.29</v>
+        <v>7.79</v>
       </c>
       <c r="F8" t="n">
-        <v>11.26</v>
+        <v>27.84</v>
       </c>
       <c r="G8" t="n">
-        <v>12.94</v>
+        <v>27.85</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.8</v>
+        <v>12.8</v>
       </c>
       <c r="J8" t="n">
-        <v>9.970000000000001</v>
+        <v>28.84</v>
       </c>
       <c r="K8" t="n">
-        <v>17.94</v>
+        <v>22.43</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.48</v>
+        <v>15.3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.08</v>
+        <v>28.07</v>
       </c>
       <c r="D9" t="n">
-        <v>3.45</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>8.49</v>
+        <v>16.39</v>
       </c>
       <c r="F9" t="n">
-        <v>13.06</v>
+        <v>16.39</v>
       </c>
       <c r="G9" t="n">
-        <v>14.74</v>
+        <v>19.28</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8</v>
+        <v>12.8</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77</v>
+        <v>18.45</v>
       </c>
       <c r="K9" t="n">
-        <v>19.74</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.25</v>
+        <v>14.88</v>
       </c>
       <c r="C10" t="n">
-        <v>28.85</v>
+        <v>28.79</v>
       </c>
       <c r="D10" t="n">
-        <v>8.32</v>
+        <v>25.58</v>
       </c>
       <c r="E10" t="n">
-        <v>20.25</v>
+        <v>27.89</v>
       </c>
       <c r="F10" t="n">
-        <v>1.3</v>
+        <v>3.88</v>
       </c>
       <c r="G10" t="n">
-        <v>2.98</v>
+        <v>4.91</v>
       </c>
       <c r="H10" t="n">
-        <v>9.970000000000001</v>
+        <v>28.84</v>
       </c>
       <c r="I10" t="n">
-        <v>11.77</v>
+        <v>18.45</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.97</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.22</v>
+        <v>20.04</v>
       </c>
       <c r="C11" t="n">
-        <v>36.82</v>
+        <v>34.68</v>
       </c>
       <c r="D11" t="n">
-        <v>16.29</v>
+        <v>18.37</v>
       </c>
       <c r="E11" t="n">
-        <v>28.23</v>
+        <v>25.66</v>
       </c>
       <c r="F11" t="n">
-        <v>6.68</v>
+        <v>11.31</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>18.03</v>
       </c>
       <c r="H11" t="n">
-        <v>17.94</v>
+        <v>22.43</v>
       </c>
       <c r="I11" t="n">
-        <v>19.74</v>
+        <v>9.67</v>
       </c>
       <c r="J11" t="n">
-        <v>7.97</v>
+        <v>14.84</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-7.599471983787664</v>
+        <v>-1.10896363100389</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.599476799923282</v>
+        <v>-6.685935942098697</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-17.21337066295414</v>
+        <v>6.630907276228171</v>
       </c>
       <c r="C3" t="n">
-        <v>-17.21337120499478</v>
+        <v>-19.53209026960454</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.697034889333607</v>
+        <v>10.74341736149732</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.697029834848391</v>
+        <v>5.57290196032995</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-11.13687523886653</v>
+        <v>13.28287156824621</v>
       </c>
       <c r="C5" t="n">
-        <v>-11.13687369369576</v>
+        <v>-4.015394050718244</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.100428963514926</v>
+        <v>-13.47925288686756</v>
       </c>
       <c r="C6" t="n">
-        <v>4.100442749674358</v>
+        <v>4.052148563740511</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.289188124242507</v>
+        <v>-12.33329633929637</v>
       </c>
       <c r="C7" t="n">
-        <v>5.289175675745891</v>
+        <v>-4.256152559276617</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.863251036141378</v>
+        <v>14.35471117459547</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.863253416013849</v>
+        <v>3.697913220307131</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.136052640174266</v>
+        <v>2.374915440701956</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.136046953404302</v>
+        <v>8.214843294622579</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.183235918757546</v>
+        <v>-14.27543566893722</v>
       </c>
       <c r="C10" t="n">
-        <v>3.183222120607334</v>
+        <v>0.25679958678924</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.822147131922016</v>
+        <v>-6.189874295164077</v>
       </c>
       <c r="C11" t="n">
-        <v>8.822148824005849</v>
+        <v>12.69496619590869</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001924037933349609</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001025199890136719</v>
+        <v>12.54</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3344230651855469</v>
+        <v>15.11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.991466760635376</v>
+        <v>17.1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05038595199584961</v>
+        <v>16.53</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08816266059875488</v>
+        <v>12.83</v>
       </c>
       <c r="H2" t="n">
-        <v>1.337424993515015</v>
+        <v>21.09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="K2" t="n">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="K3" t="n">
+        <v>35.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="K5" t="n">
+        <v>27.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29.64</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K7" t="n">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="C8" t="n">
+        <v>26.22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.81</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23.66</v>
+      </c>
+      <c r="C11" t="n">
+        <v>35.63</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.2650661784711958</v>
       </c>
       <c r="C2" t="n">
-        <v>13.66</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8204204204204205</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.525777777777778</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1990994846813466</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001924037933349609</v>
+        <v>0.008192681691816467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.571000638286712</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5935483870967742</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.458111111111111</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1348793248399318</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001025199890136719</v>
+        <v>0.3220814823342034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>-0.1625077223540413</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7005775211017325</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.842222222222222</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2193751271796107</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3344230651855469</v>
+        <v>0.3209213410493533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.03573814597492043</v>
       </c>
       <c r="C5" t="n">
-        <v>24.52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9973579920739762</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.00977777777778</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7005276379218494</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.991466760635376</v>
+        <v>0.5245368868682053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.009737591258775147</v>
       </c>
       <c r="C6" t="n">
-        <v>3.349999999999998</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.91796875</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.475111111111111</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1296175541533602</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.05038595199584961</v>
+        <v>-0.5111662540125933</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.271913400707416</v>
       </c>
       <c r="C7" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.26171875</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.856000000000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2826933267961012</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.08816266059875488</v>
+        <v>-0.4384556164708848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>-0.3396996684747721</v>
       </c>
       <c r="C8" t="n">
-        <v>16.98</v>
+        <v>0.434760636906977</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1496097194153702</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07749937318097799</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03929810738128339</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3832758666909043</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.4825292616950373</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.3471158434858212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>23.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="G5" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29.89</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17.82</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8430688753269397</v>
+        <v>2.2</v>
       </c>
       <c r="E8" t="n">
-        <v>6.002444444444444</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3563718268240227</v>
+        <v>12.08</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>13.77</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08888888888888889</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.337424993515015</v>
+        <v>1.01</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36.53</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-7.826032034465867</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.826037373216951</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-17.34728255988731</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-17.34728293256107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.191469785720181</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.191470115562919</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-11.44130373929947</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-11.44130334417643</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.790934693372885</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.790941510613548</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.987592697818226</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.987586771128497</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-4.747399841263126</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.747412406740985</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-5.462061798375126</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-5.462040423256147</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.882156728858155</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.882150873696852</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8.484723335796893</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.484724671972362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="J2" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="K2" t="n">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="K3" t="n">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19.78</v>
+      </c>
+      <c r="C4" t="n">
+        <v>26.38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="J4" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="K5" t="n">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28.77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="K7" t="n">
+        <v>20.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31.77</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="D10" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="H10" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05556707898485345</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.31022045649106</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.07883129619268833</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.6256119844969696</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3427035117576523</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2155863482255844</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3833699351414313</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1732044916622131</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3897422415250166</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2142466315727442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3621885928899957</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.2348438096171868</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.4558410827355094</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06715968926461446</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1049449954119887</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4320010123540501</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4643070431578183</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03767681617932041</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.09388586467759499</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3772102446710567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="J3" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="K3" t="n">
+        <v>26.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="G5" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="K5" t="n">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30.88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="F8" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>29.32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="C10" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31.57</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.89</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.36</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8853122865119867</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.904566605978518</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-17.08333788958738</v>
+      </c>
+      <c r="C3" t="n">
+        <v>35.01253227705664</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-20.84768361622488</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-16.01167105861521</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-30.39955649148829</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.475166847958968</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32.39975720815362</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-5.418322981037231</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>25.06448546227516</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.440858869156409</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-32.613984849413</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-8.409433394180558</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.711282388674892</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-16.8212853179463</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>34.31457944742307</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.247228433946562</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10.99171083102458</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-12.41964028231775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002634525299072266</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002560615539550781</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002641677856445312</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.730046987533569</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.855953454971313</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2397253513336182</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1839585304260254</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5844080448150635</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.01368260383605957</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009469985961914062</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>18.52</v>
+        <v>18.22</v>
       </c>
       <c r="D2" t="n">
-        <v>20.48</v>
+        <v>15.07</v>
       </c>
       <c r="E2" t="n">
-        <v>10.21</v>
+        <v>20.16</v>
       </c>
       <c r="F2" t="n">
-        <v>12.71</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>9.08</v>
+        <v>11.25</v>
       </c>
       <c r="H2" t="n">
-        <v>30.95</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>13.92</v>
+        <v>11.63</v>
       </c>
       <c r="J2" t="n">
-        <v>13.68</v>
+        <v>12.85</v>
       </c>
       <c r="K2" t="n">
-        <v>18.06</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.33</v>
+        <v>18.22</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>30.65</v>
+        <v>13.95</v>
       </c>
       <c r="E3" t="n">
-        <v>17.96</v>
+        <v>18.29</v>
       </c>
       <c r="F3" t="n">
-        <v>27.8</v>
+        <v>27.59</v>
       </c>
       <c r="G3" t="n">
-        <v>25.84</v>
+        <v>29.46</v>
       </c>
       <c r="H3" t="n">
-        <v>19.64</v>
+        <v>14.78</v>
       </c>
       <c r="I3" t="n">
-        <v>22.66</v>
+        <v>21.03</v>
       </c>
       <c r="J3" t="n">
-        <v>20.42</v>
+        <v>30.86</v>
       </c>
       <c r="K3" t="n">
-        <v>32.84</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.41</v>
+        <v>15.07</v>
       </c>
       <c r="C4" t="n">
-        <v>28.86</v>
+        <v>13.95</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74</v>
+        <v>5.67</v>
       </c>
       <c r="F4" t="n">
-        <v>21.25</v>
+        <v>20.48</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>24.14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.21</v>
+        <v>1.51</v>
       </c>
       <c r="I4" t="n">
-        <v>8.73</v>
+        <v>9.31</v>
       </c>
       <c r="J4" t="n">
-        <v>20.35</v>
+        <v>23.97</v>
       </c>
       <c r="K4" t="n">
-        <v>18</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.8</v>
+        <v>20.16</v>
       </c>
       <c r="C5" t="n">
-        <v>13.23</v>
+        <v>18.29</v>
       </c>
       <c r="D5" t="n">
-        <v>6.61</v>
+        <v>5.67</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>33.08</v>
+        <v>23.98</v>
       </c>
       <c r="G5" t="n">
-        <v>27.98</v>
+        <v>28.08</v>
       </c>
       <c r="H5" t="n">
-        <v>7.12</v>
+        <v>6.27</v>
       </c>
       <c r="I5" t="n">
-        <v>17.77</v>
+        <v>11.63</v>
       </c>
       <c r="J5" t="n">
-        <v>36.38</v>
+        <v>27.34</v>
       </c>
       <c r="K5" t="n">
-        <v>18.58</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.57</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>41.05</v>
+        <v>27.59</v>
       </c>
       <c r="D6" t="n">
-        <v>20.73</v>
+        <v>20.48</v>
       </c>
       <c r="E6" t="n">
-        <v>19.16</v>
+        <v>23.98</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.03</v>
+        <v>4.61</v>
       </c>
       <c r="H6" t="n">
-        <v>26.53</v>
+        <v>19.03</v>
       </c>
       <c r="I6" t="n">
-        <v>10.99</v>
+        <v>12.47</v>
       </c>
       <c r="J6" t="n">
-        <v>2.07</v>
+        <v>3.51</v>
       </c>
       <c r="K6" t="n">
-        <v>10.92</v>
+        <v>15.92</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.11</v>
+        <v>11.25</v>
       </c>
       <c r="C7" t="n">
-        <v>23.57</v>
+        <v>29.46</v>
       </c>
       <c r="D7" t="n">
-        <v>27.17</v>
+        <v>24.14</v>
       </c>
       <c r="E7" t="n">
-        <v>27.49</v>
+        <v>28.08</v>
       </c>
       <c r="F7" t="n">
-        <v>6.83</v>
+        <v>4.61</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28.05</v>
+        <v>22.76</v>
       </c>
       <c r="I7" t="n">
-        <v>30.31</v>
+        <v>16.79</v>
       </c>
       <c r="J7" t="n">
-        <v>2.04</v>
+        <v>3.43</v>
       </c>
       <c r="K7" t="n">
-        <v>14.1</v>
+        <v>15.85</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>27.08</v>
+        <v>14.78</v>
       </c>
       <c r="D8" t="n">
-        <v>2.05</v>
+        <v>1.51</v>
       </c>
       <c r="E8" t="n">
-        <v>9.66</v>
+        <v>6.27</v>
       </c>
       <c r="F8" t="n">
-        <v>48.33</v>
+        <v>19.03</v>
       </c>
       <c r="G8" t="n">
-        <v>22.28</v>
+        <v>22.76</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>10.99</v>
+        <v>7.82</v>
       </c>
       <c r="J8" t="n">
-        <v>23.04</v>
+        <v>22.51</v>
       </c>
       <c r="K8" t="n">
-        <v>23.59</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.16</v>
+        <v>11.63</v>
       </c>
       <c r="C9" t="n">
-        <v>30.6</v>
+        <v>21.03</v>
       </c>
       <c r="D9" t="n">
-        <v>8.789999999999999</v>
+        <v>9.31</v>
       </c>
       <c r="E9" t="n">
-        <v>22.55</v>
+        <v>11.63</v>
       </c>
       <c r="F9" t="n">
-        <v>12.89</v>
+        <v>12.47</v>
       </c>
       <c r="G9" t="n">
-        <v>17.13</v>
+        <v>16.79</v>
       </c>
       <c r="H9" t="n">
-        <v>9.9</v>
+        <v>7.82</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19.04</v>
+        <v>15.75</v>
       </c>
       <c r="K9" t="n">
-        <v>14.81</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.07</v>
+        <v>12.85</v>
       </c>
       <c r="C10" t="n">
-        <v>32.89</v>
+        <v>30.86</v>
       </c>
       <c r="D10" t="n">
-        <v>30.6</v>
+        <v>23.97</v>
       </c>
       <c r="E10" t="n">
-        <v>34.23</v>
+        <v>27.34</v>
       </c>
       <c r="F10" t="n">
-        <v>3.83</v>
+        <v>3.51</v>
       </c>
       <c r="G10" t="n">
-        <v>3.98</v>
+        <v>3.43</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91</v>
+        <v>22.51</v>
       </c>
       <c r="I10" t="n">
-        <v>14.69</v>
+        <v>15.75</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>18.06</v>
+        <v>18.31</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.55</v>
+        <v>6.74</v>
       </c>
       <c r="C11" t="n">
-        <v>36.01</v>
+        <v>15.66</v>
       </c>
       <c r="D11" t="n">
-        <v>28.16</v>
+        <v>18.11</v>
       </c>
       <c r="E11" t="n">
-        <v>19.27</v>
+        <v>23.72</v>
       </c>
       <c r="F11" t="n">
-        <v>12.09</v>
+        <v>15.92</v>
       </c>
       <c r="G11" t="n">
-        <v>35.3</v>
+        <v>15.85</v>
       </c>
       <c r="H11" t="n">
-        <v>19.8</v>
+        <v>17.5</v>
       </c>
       <c r="I11" t="n">
-        <v>11.35</v>
+        <v>17.54</v>
       </c>
       <c r="J11" t="n">
-        <v>9.34</v>
+        <v>18.31</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-3.600873234435864</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.301268592687151</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.784945212493782</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19.70488795240064</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.12261606128153</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.517900283582897</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15.76168720491742</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7.90140209607866</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-2.581721570193347</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7.53976609067638</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-7.118295488768307</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-8.382360216413383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.542950984223856</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.121866443201997</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.696801250337256</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.4746020875378033</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-4.438166338137678</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-10.5199311040273</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-7.957768997165475</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.44365349101098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13.66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8204204204204205</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.525777777777778</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1990994846813466</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001924037933349609</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5935483870967742</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.458111111111111</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1348793248399318</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001025199890136719</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7005775211017325</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.842222222222222</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2193751271796107</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3344230651855469</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24.52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9973579920739762</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.00977777777778</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7005276379218494</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.991466760635376</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.349999999999998</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.91796875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.475111111111111</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1296175541533602</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05038595199584961</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.26171875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.856000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2826933267961012</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.08816266059875488</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8430688753269397</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.002444444444444</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3563718268240227</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.337424993515015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.425</v>
+        <v>18.52</v>
       </c>
       <c r="D2" t="n">
-        <v>18.945</v>
+        <v>20.48</v>
       </c>
       <c r="E2" t="n">
-        <v>11.505</v>
+        <v>10.21</v>
       </c>
       <c r="F2" t="n">
-        <v>17.64</v>
+        <v>12.71</v>
       </c>
       <c r="G2" t="n">
-        <v>10.595</v>
+        <v>9.08</v>
       </c>
       <c r="H2" t="n">
-        <v>20.725</v>
+        <v>30.95</v>
       </c>
       <c r="I2" t="n">
-        <v>16.54</v>
+        <v>13.92</v>
       </c>
       <c r="J2" t="n">
-        <v>13.375</v>
+        <v>13.68</v>
       </c>
       <c r="K2" t="n">
-        <v>19.305</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.425</v>
+        <v>12.33</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.755</v>
+        <v>30.65</v>
       </c>
       <c r="E3" t="n">
-        <v>15.595</v>
+        <v>17.96</v>
       </c>
       <c r="F3" t="n">
-        <v>34.425</v>
+        <v>27.8</v>
       </c>
       <c r="G3" t="n">
-        <v>24.705</v>
+        <v>25.84</v>
       </c>
       <c r="H3" t="n">
-        <v>23.36</v>
+        <v>19.64</v>
       </c>
       <c r="I3" t="n">
-        <v>26.63</v>
+        <v>22.66</v>
       </c>
       <c r="J3" t="n">
-        <v>26.655</v>
+        <v>20.42</v>
       </c>
       <c r="K3" t="n">
-        <v>34.425</v>
+        <v>32.84</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.945</v>
+        <v>17.41</v>
       </c>
       <c r="C4" t="n">
-        <v>29.755</v>
+        <v>28.86</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.175000000000001</v>
+        <v>11.74</v>
       </c>
       <c r="F4" t="n">
-        <v>20.99</v>
+        <v>21.25</v>
       </c>
       <c r="G4" t="n">
-        <v>21.585</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>2.13</v>
+        <v>2.21</v>
       </c>
       <c r="I4" t="n">
-        <v>8.76</v>
+        <v>8.73</v>
       </c>
       <c r="J4" t="n">
-        <v>25.475</v>
+        <v>20.35</v>
       </c>
       <c r="K4" t="n">
-        <v>23.08</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.505</v>
+        <v>12.8</v>
       </c>
       <c r="C5" t="n">
-        <v>15.595</v>
+        <v>13.23</v>
       </c>
       <c r="D5" t="n">
-        <v>9.175000000000001</v>
+        <v>6.61</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>26.12</v>
+        <v>33.08</v>
       </c>
       <c r="G5" t="n">
-        <v>27.735</v>
+        <v>27.98</v>
       </c>
       <c r="H5" t="n">
-        <v>8.390000000000001</v>
+        <v>7.12</v>
       </c>
       <c r="I5" t="n">
-        <v>20.16</v>
+        <v>17.77</v>
       </c>
       <c r="J5" t="n">
-        <v>35.305</v>
+        <v>36.38</v>
       </c>
       <c r="K5" t="n">
-        <v>18.925</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17.64</v>
+        <v>22.57</v>
       </c>
       <c r="C6" t="n">
-        <v>34.425</v>
+        <v>41.05</v>
       </c>
       <c r="D6" t="n">
-        <v>20.99</v>
+        <v>20.73</v>
       </c>
       <c r="E6" t="n">
-        <v>26.12</v>
+        <v>19.16</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.43</v>
+        <v>6.03</v>
       </c>
       <c r="H6" t="n">
-        <v>37.43</v>
+        <v>26.53</v>
       </c>
       <c r="I6" t="n">
-        <v>11.94</v>
+        <v>10.99</v>
       </c>
       <c r="J6" t="n">
-        <v>2.95</v>
+        <v>2.07</v>
       </c>
       <c r="K6" t="n">
-        <v>11.505</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.595</v>
+        <v>12.11</v>
       </c>
       <c r="C7" t="n">
-        <v>24.705</v>
+        <v>23.57</v>
       </c>
       <c r="D7" t="n">
-        <v>21.585</v>
+        <v>27.17</v>
       </c>
       <c r="E7" t="n">
-        <v>27.735</v>
+        <v>27.49</v>
       </c>
       <c r="F7" t="n">
-        <v>6.43</v>
+        <v>6.83</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.165</v>
+        <v>28.05</v>
       </c>
       <c r="I7" t="n">
-        <v>23.72</v>
+        <v>30.31</v>
       </c>
       <c r="J7" t="n">
-        <v>3.01</v>
+        <v>2.04</v>
       </c>
       <c r="K7" t="n">
-        <v>24.7</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20.725</v>
+        <v>10.5</v>
       </c>
       <c r="C8" t="n">
-        <v>23.36</v>
+        <v>27.08</v>
       </c>
       <c r="D8" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="E8" t="n">
-        <v>8.390000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="F8" t="n">
-        <v>37.43</v>
+        <v>48.33</v>
       </c>
       <c r="G8" t="n">
-        <v>25.165</v>
+        <v>22.28</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>10.445</v>
+        <v>10.99</v>
       </c>
       <c r="J8" t="n">
-        <v>29.975</v>
+        <v>23.04</v>
       </c>
       <c r="K8" t="n">
-        <v>21.695</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.54</v>
+        <v>19.16</v>
       </c>
       <c r="C9" t="n">
-        <v>26.63</v>
+        <v>30.6</v>
       </c>
       <c r="D9" t="n">
-        <v>8.76</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>20.16</v>
+        <v>22.55</v>
       </c>
       <c r="F9" t="n">
-        <v>11.94</v>
+        <v>12.89</v>
       </c>
       <c r="G9" t="n">
-        <v>23.72</v>
+        <v>17.13</v>
       </c>
       <c r="H9" t="n">
-        <v>10.445</v>
+        <v>9.9</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>16.865</v>
+        <v>19.04</v>
       </c>
       <c r="K9" t="n">
-        <v>13.08</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13.375</v>
+        <v>13.07</v>
       </c>
       <c r="C10" t="n">
-        <v>26.655</v>
+        <v>32.89</v>
       </c>
       <c r="D10" t="n">
-        <v>25.475</v>
+        <v>30.6</v>
       </c>
       <c r="E10" t="n">
-        <v>35.305</v>
+        <v>34.23</v>
       </c>
       <c r="F10" t="n">
-        <v>2.95</v>
+        <v>3.83</v>
       </c>
       <c r="G10" t="n">
-        <v>3.01</v>
+        <v>3.98</v>
       </c>
       <c r="H10" t="n">
-        <v>29.975</v>
+        <v>36.91</v>
       </c>
       <c r="I10" t="n">
-        <v>16.865</v>
+        <v>14.69</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>13.7</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.305</v>
+        <v>20.55</v>
       </c>
       <c r="C11" t="n">
-        <v>34.425</v>
+        <v>36.01</v>
       </c>
       <c r="D11" t="n">
-        <v>23.08</v>
+        <v>28.16</v>
       </c>
       <c r="E11" t="n">
-        <v>18.925</v>
+        <v>19.27</v>
       </c>
       <c r="F11" t="n">
-        <v>11.505</v>
+        <v>12.09</v>
       </c>
       <c r="G11" t="n">
-        <v>24.7</v>
+        <v>35.3</v>
       </c>
       <c r="H11" t="n">
-        <v>21.695</v>
+        <v>19.8</v>
       </c>
       <c r="I11" t="n">
-        <v>13.08</v>
+        <v>11.35</v>
       </c>
       <c r="J11" t="n">
-        <v>13.7</v>
+        <v>9.34</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="E2" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="E3" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="F3" t="n">
-        <v>27.59</v>
-      </c>
-      <c r="G3" t="n">
-        <v>29.46</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="I3" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="J3" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15.66</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="G4" t="n">
-        <v>24.14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18.29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="G5" t="n">
-        <v>28.08</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J5" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="K5" t="n">
-        <v>23.72</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>27.59</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="E6" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="H6" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15.92</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="C7" t="n">
-        <v>29.46</v>
-      </c>
-      <c r="D7" t="n">
-        <v>24.14</v>
-      </c>
-      <c r="E7" t="n">
-        <v>28.08</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>22.76</v>
-      </c>
-      <c r="I7" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="K7" t="n">
-        <v>15.85</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>14</v>
-      </c>
-      <c r="C8" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="F8" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="G8" t="n">
-        <v>22.76</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="J8" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="K8" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="C9" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="K9" t="n">
-        <v>17.54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="C10" t="n">
-        <v>30.86</v>
-      </c>
-      <c r="D10" t="n">
-        <v>23.97</v>
-      </c>
-      <c r="E10" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="H10" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>18.31</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="C11" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="D11" t="n">
-        <v>18.11</v>
-      </c>
-      <c r="E11" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="F11" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>15.85</v>
-      </c>
-      <c r="H11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>17.54</v>
-      </c>
-      <c r="J11" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-3.600873234435864</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.301268592687151</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.784945212493782</v>
-      </c>
-      <c r="C3" t="n">
-        <v>19.70488795240064</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10.12261606128153</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.517900283582897</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>15.76168720491742</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.90140209607866</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-2.581721570193347</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-7.53976609067638</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-7.118295488768307</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-8.382360216413383</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>9.542950984223856</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.121866443201997</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7.696801250337256</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.4746020875378033</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-4.438166338137678</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-10.5199311040273</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-7.957768997165475</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.44365349101098</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.16</v>
+        <v>15.11</v>
       </c>
       <c r="D2" t="n">
-        <v>3.72</v>
+        <v>18.88</v>
       </c>
       <c r="E2" t="n">
-        <v>1.27</v>
+        <v>11.43</v>
       </c>
       <c r="F2" t="n">
-        <v>4.36</v>
+        <v>16.94</v>
       </c>
       <c r="G2" t="n">
-        <v>5.26</v>
+        <v>10.49</v>
       </c>
       <c r="H2" t="n">
-        <v>0.52</v>
+        <v>18.03</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04</v>
+        <v>16.33</v>
       </c>
       <c r="J2" t="n">
-        <v>3.51</v>
+        <v>13.37</v>
       </c>
       <c r="K2" t="n">
-        <v>7.92</v>
+        <v>19.26</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.16</v>
+        <v>15.11</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.88</v>
+        <v>29.74</v>
       </c>
       <c r="E3" t="n">
-        <v>7.89</v>
+        <v>15.41</v>
       </c>
       <c r="F3" t="n">
-        <v>13.52</v>
+        <v>33.78</v>
       </c>
       <c r="G3" t="n">
-        <v>14.42</v>
+        <v>24.68</v>
       </c>
       <c r="H3" t="n">
-        <v>9.68</v>
+        <v>23.06</v>
       </c>
       <c r="I3" t="n">
-        <v>9.119999999999999</v>
+        <v>26.33</v>
       </c>
       <c r="J3" t="n">
-        <v>12.67</v>
+        <v>25.92</v>
       </c>
       <c r="K3" t="n">
-        <v>17.08</v>
+        <v>34.39</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.72</v>
+        <v>18.88</v>
       </c>
       <c r="C4" t="n">
-        <v>12.88</v>
+        <v>29.74</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.99</v>
+        <v>8.81</v>
       </c>
       <c r="F4" t="n">
-        <v>0.65</v>
+        <v>20.99</v>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>20.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.19</v>
+        <v>2.13</v>
       </c>
       <c r="I4" t="n">
-        <v>3.76</v>
+        <v>8.76</v>
       </c>
       <c r="J4" t="n">
-        <v>0.21</v>
+        <v>24.96</v>
       </c>
       <c r="K4" t="n">
-        <v>4.21</v>
+        <v>22.51</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.27</v>
+        <v>11.43</v>
       </c>
       <c r="C5" t="n">
-        <v>7.89</v>
+        <v>15.41</v>
       </c>
       <c r="D5" t="n">
-        <v>4.99</v>
+        <v>8.81</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.63</v>
+        <v>25.18</v>
       </c>
       <c r="G5" t="n">
-        <v>6.53</v>
+        <v>27.74</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1.23</v>
+        <v>20.02</v>
       </c>
       <c r="J5" t="n">
-        <v>4.78</v>
+        <v>35.29</v>
       </c>
       <c r="K5" t="n">
-        <v>9.19</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.36</v>
+        <v>16.94</v>
       </c>
       <c r="C6" t="n">
-        <v>13.52</v>
+        <v>33.78</v>
       </c>
       <c r="D6" t="n">
-        <v>0.65</v>
+        <v>20.99</v>
       </c>
       <c r="E6" t="n">
-        <v>5.63</v>
+        <v>25.18</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>6.42</v>
       </c>
       <c r="H6" t="n">
-        <v>3.84</v>
+        <v>35.81</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>11.9</v>
       </c>
       <c r="J6" t="n">
-        <v>0.86</v>
+        <v>2.81</v>
       </c>
       <c r="K6" t="n">
-        <v>3.56</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.26</v>
+        <v>10.49</v>
       </c>
       <c r="C7" t="n">
-        <v>14.42</v>
+        <v>24.68</v>
       </c>
       <c r="D7" t="n">
-        <v>1.55</v>
+        <v>20.85</v>
       </c>
       <c r="E7" t="n">
-        <v>6.53</v>
+        <v>27.74</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9</v>
+        <v>6.42</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.74</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>5.3</v>
+        <v>22.79</v>
       </c>
       <c r="J7" t="n">
-        <v>1.76</v>
+        <v>2.85</v>
       </c>
       <c r="K7" t="n">
-        <v>2.66</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.52</v>
+        <v>18.03</v>
       </c>
       <c r="C8" t="n">
-        <v>9.68</v>
+        <v>23.06</v>
       </c>
       <c r="D8" t="n">
-        <v>3.19</v>
+        <v>2.13</v>
       </c>
       <c r="E8" t="n">
-        <v>1.79</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>3.84</v>
+        <v>35.81</v>
       </c>
       <c r="G8" t="n">
-        <v>4.74</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5600000000000001</v>
+        <v>10.43</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>29.16</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>21.61</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04</v>
+        <v>16.33</v>
       </c>
       <c r="C9" t="n">
-        <v>9.119999999999999</v>
+        <v>26.33</v>
       </c>
       <c r="D9" t="n">
-        <v>3.76</v>
+        <v>8.76</v>
       </c>
       <c r="E9" t="n">
-        <v>1.23</v>
+        <v>20.02</v>
       </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>11.9</v>
       </c>
       <c r="G9" t="n">
-        <v>5.3</v>
+        <v>22.79</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5600000000000001</v>
+        <v>10.43</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>16.72</v>
       </c>
       <c r="K9" t="n">
-        <v>7.96</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.51</v>
+        <v>13.37</v>
       </c>
       <c r="C10" t="n">
-        <v>12.67</v>
+        <v>25.92</v>
       </c>
       <c r="D10" t="n">
-        <v>0.21</v>
+        <v>24.96</v>
       </c>
       <c r="E10" t="n">
-        <v>4.78</v>
+        <v>35.29</v>
       </c>
       <c r="F10" t="n">
-        <v>0.86</v>
+        <v>2.81</v>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>2.85</v>
       </c>
       <c r="H10" t="n">
-        <v>2.98</v>
+        <v>29.16</v>
       </c>
       <c r="I10" t="n">
-        <v>3.55</v>
+        <v>16.72</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.42</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.92</v>
+        <v>19.26</v>
       </c>
       <c r="C11" t="n">
-        <v>17.08</v>
+        <v>34.39</v>
       </c>
       <c r="D11" t="n">
-        <v>4.21</v>
+        <v>22.51</v>
       </c>
       <c r="E11" t="n">
-        <v>9.19</v>
+        <v>18.92</v>
       </c>
       <c r="F11" t="n">
-        <v>3.56</v>
+        <v>11.49</v>
       </c>
       <c r="G11" t="n">
-        <v>2.66</v>
+        <v>22.31</v>
       </c>
       <c r="H11" t="n">
-        <v>7.4</v>
+        <v>21.61</v>
       </c>
       <c r="I11" t="n">
-        <v>7.96</v>
+        <v>12.96</v>
       </c>
       <c r="J11" t="n">
-        <v>4.42</v>
+        <v>12.98</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
